--- a/Electronic Design/Core64 LM v0.3/Core64_LM_V0.3_Gerbers/Core64 LM v0.3_CPL.xlsx
+++ b/Electronic Design/Core64 LM v0.3/Core64_LM_V0.3_Gerbers/Core64 LM v0.3_CPL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ageppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Electronic Design/Core64 LM v0.1/Core64_LM_V0.1_Gerbers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ageppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Electronic Design/Core64 LM v0.3/Core64_LM_V0.3_Gerbers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778AC5A3-101D-E04B-86C2-473BE445A837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D63019F-C7BE-264E-9799-545FBD4DB2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="460" windowWidth="23040" windowHeight="22680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>WS2813</t>
   </si>
   <si>
-    <t>LED_WS2813_PLCC6_5.0x5.0mm_P1.6mm_Core64_Abg_Mod</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -283,13 +280,16 @@
   </si>
   <si>
     <t>D64</t>
+  </si>
+  <si>
+    <t>LED-6_5050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +303,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -348,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +363,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,7 +646,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -875,13 +885,13 @@
       <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
+      <c r="G10" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>-16.875</v>
@@ -898,13 +908,13 @@
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
         <v>-10.125</v>
@@ -921,13 +931,13 @@
       <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>20</v>
+      <c r="G12" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>-3.375</v>
@@ -944,13 +954,13 @@
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>20</v>
+      <c r="G13" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>3.375</v>
@@ -967,13 +977,13 @@
       <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>20</v>
+      <c r="G14" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>10.125</v>
@@ -990,13 +1000,13 @@
       <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>20</v>
+      <c r="G15" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>16.875</v>
@@ -1013,13 +1023,13 @@
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
+      <c r="G16" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>23.625</v>
@@ -1036,13 +1046,13 @@
       <c r="F17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>20</v>
+      <c r="G17" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>-23.625</v>
@@ -1059,13 +1069,13 @@
       <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>20</v>
+      <c r="G18" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>-16.875</v>
@@ -1082,13 +1092,13 @@
       <c r="F19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>20</v>
+      <c r="G19" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
         <v>-10.125</v>
@@ -1105,13 +1115,13 @@
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>20</v>
+      <c r="G20" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>-3.375</v>
@@ -1128,13 +1138,13 @@
       <c r="F21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>20</v>
+      <c r="G21" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
         <v>3.375</v>
@@ -1151,13 +1161,13 @@
       <c r="F22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>20</v>
+      <c r="G22" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
         <v>10.125</v>
@@ -1174,13 +1184,13 @@
       <c r="F23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>20</v>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
         <v>16.875</v>
@@ -1197,13 +1207,13 @@
       <c r="F24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>20</v>
+      <c r="G24" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2">
         <v>23.625</v>
@@ -1220,13 +1230,13 @@
       <c r="F25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>20</v>
+      <c r="G25" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
         <v>-23.625</v>
@@ -1243,13 +1253,13 @@
       <c r="F26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>20</v>
+      <c r="G26" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2">
         <v>-16.875</v>
@@ -1266,13 +1276,13 @@
       <c r="F27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>20</v>
+      <c r="G27" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
         <v>-10.125</v>
@@ -1289,13 +1299,13 @@
       <c r="F28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>20</v>
+      <c r="G28" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
         <v>-3.375</v>
@@ -1312,13 +1322,13 @@
       <c r="F29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>20</v>
+      <c r="G29" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
         <v>3.375</v>
@@ -1335,13 +1345,13 @@
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>20</v>
+      <c r="G30" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
         <v>10.125</v>
@@ -1358,13 +1368,13 @@
       <c r="F31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>20</v>
+      <c r="G31" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
         <v>16.875</v>
@@ -1381,13 +1391,13 @@
       <c r="F32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>20</v>
+      <c r="G32" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
         <v>23.625</v>
@@ -1404,13 +1414,13 @@
       <c r="F33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>20</v>
+      <c r="G33" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2">
         <v>-23.625</v>
@@ -1427,13 +1437,13 @@
       <c r="F34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>20</v>
+      <c r="G34" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2">
         <v>-16.875</v>
@@ -1450,13 +1460,13 @@
       <c r="F35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>20</v>
+      <c r="G35" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2">
         <v>-10.125</v>
@@ -1473,13 +1483,13 @@
       <c r="F36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>20</v>
+      <c r="G36" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2">
         <v>-3.375</v>
@@ -1496,13 +1506,13 @@
       <c r="F37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>20</v>
+      <c r="G37" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2">
         <v>3.375</v>
@@ -1519,13 +1529,13 @@
       <c r="F38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>20</v>
+      <c r="G38" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2">
         <v>10.125</v>
@@ -1542,13 +1552,13 @@
       <c r="F39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>20</v>
+      <c r="G39" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2">
         <v>16.875</v>
@@ -1565,13 +1575,13 @@
       <c r="F40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>20</v>
+      <c r="G40" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2">
         <v>23.625</v>
@@ -1588,13 +1598,13 @@
       <c r="F41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>20</v>
+      <c r="G41" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2">
         <v>-23.625</v>
@@ -1611,13 +1621,13 @@
       <c r="F42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>20</v>
+      <c r="G42" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2">
         <v>-16.875</v>
@@ -1634,13 +1644,13 @@
       <c r="F43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>20</v>
+      <c r="G43" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2">
         <v>-10.125</v>
@@ -1657,13 +1667,13 @@
       <c r="F44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>20</v>
+      <c r="G44" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2">
         <v>-3.375</v>
@@ -1680,13 +1690,13 @@
       <c r="F45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>20</v>
+      <c r="G45" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2">
         <v>3.375</v>
@@ -1703,13 +1713,13 @@
       <c r="F46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>20</v>
+      <c r="G46" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2">
         <v>10.125</v>
@@ -1726,13 +1736,13 @@
       <c r="F47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>20</v>
+      <c r="G47" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2">
         <v>16.875</v>
@@ -1749,13 +1759,13 @@
       <c r="F48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>20</v>
+      <c r="G48" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2">
         <v>23.625</v>
@@ -1772,13 +1782,13 @@
       <c r="F49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>20</v>
+      <c r="G49" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2">
         <v>-23.625</v>
@@ -1795,13 +1805,13 @@
       <c r="F50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>20</v>
+      <c r="G50" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2">
         <v>-16.875</v>
@@ -1818,13 +1828,13 @@
       <c r="F51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>20</v>
+      <c r="G51" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2">
         <v>-10.125</v>
@@ -1841,13 +1851,13 @@
       <c r="F52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>20</v>
+      <c r="G52" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2">
         <v>-3.375</v>
@@ -1864,13 +1874,13 @@
       <c r="F53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>20</v>
+      <c r="G53" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2">
         <v>3.375</v>
@@ -1887,13 +1897,13 @@
       <c r="F54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>20</v>
+      <c r="G54" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2">
         <v>10.125</v>
@@ -1910,13 +1920,13 @@
       <c r="F55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>20</v>
+      <c r="G55" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="2">
         <v>16.875</v>
@@ -1933,13 +1943,13 @@
       <c r="F56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>20</v>
+      <c r="G56" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2">
         <v>23.625</v>
@@ -1956,13 +1966,13 @@
       <c r="F57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>20</v>
+      <c r="G57" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="2">
         <v>-23.625</v>
@@ -1979,13 +1989,13 @@
       <c r="F58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>20</v>
+      <c r="G58" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2">
         <v>-16.875</v>
@@ -2002,13 +2012,13 @@
       <c r="F59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>20</v>
+      <c r="G59" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2">
         <v>-10.125</v>
@@ -2025,13 +2035,13 @@
       <c r="F60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>20</v>
+      <c r="G60" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2">
         <v>-3.375</v>
@@ -2048,13 +2058,13 @@
       <c r="F61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>20</v>
+      <c r="G61" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2">
         <v>3.375</v>
@@ -2071,13 +2081,13 @@
       <c r="F62" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>20</v>
+      <c r="G62" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2">
         <v>10.125</v>
@@ -2094,13 +2104,13 @@
       <c r="F63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>20</v>
+      <c r="G63" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2">
         <v>16.875</v>
@@ -2117,13 +2127,13 @@
       <c r="F64" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>20</v>
+      <c r="G64" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2">
         <v>23.625</v>
@@ -2140,13 +2150,13 @@
       <c r="F65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>20</v>
+      <c r="G65" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2">
         <v>-23.625</v>
@@ -2163,13 +2173,13 @@
       <c r="F66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>20</v>
+      <c r="G66" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2">
         <v>-16.875</v>
@@ -2186,13 +2196,13 @@
       <c r="F67" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>20</v>
+      <c r="G67" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2">
         <v>-10.125</v>
@@ -2209,13 +2219,13 @@
       <c r="F68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>20</v>
+      <c r="G68" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2">
         <v>-3.375</v>
@@ -2232,13 +2242,13 @@
       <c r="F69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>20</v>
+      <c r="G69" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2">
         <v>3.375</v>
@@ -2255,13 +2265,13 @@
       <c r="F70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>20</v>
+      <c r="G70" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2">
         <v>10.125</v>
@@ -2278,13 +2288,13 @@
       <c r="F71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>20</v>
+      <c r="G71" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2">
         <v>16.875</v>
@@ -2301,13 +2311,13 @@
       <c r="F72" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>20</v>
+      <c r="G72" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2">
         <v>23.625</v>
@@ -2324,8 +2334,8 @@
       <c r="F73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>20</v>
+      <c r="G73" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
